--- a/logs/2024/Despair - Vladimir Nabokov.xlsx
+++ b/logs/2024/Despair - Vladimir Nabokov.xlsx
@@ -430,7 +430,7 @@
         <v>45579</v>
       </c>
       <c r="B1" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45586</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45597</v>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45623</v>
       </c>
       <c r="B4" t="n">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45624</v>
       </c>
       <c r="B5" t="n">
-        <v>226</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45628</v>
       </c>
       <c r="B6" t="n">
-        <v>279</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
